--- a/data/trans_orig/P36BPD12_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD12_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>115332</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>85949</v>
+        <v>87171</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>148072</v>
+        <v>145245</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2828191906799093</v>
+        <v>0.2828191906799092</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2107674462907972</v>
+        <v>0.2137630990157715</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3631052424472234</v>
+        <v>0.3561742767395379</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>90</v>
@@ -762,19 +762,19 @@
         <v>158305</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>134462</v>
+        <v>131408</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>185701</v>
+        <v>183807</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4382302483255639</v>
+        <v>0.4382302483255638</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3722245715374068</v>
+        <v>0.3637711447978692</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5140681998414873</v>
+        <v>0.5088241816789966</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>135</v>
@@ -783,19 +783,19 @@
         <v>273637</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>237458</v>
+        <v>235165</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>317140</v>
+        <v>314252</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3558206473038661</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3087746448598236</v>
+        <v>0.3057930111748234</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4123890245596791</v>
+        <v>0.4086326117845099</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>188956</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>157507</v>
+        <v>156538</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>222304</v>
+        <v>223187</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4633637617893758</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3862435417656027</v>
+        <v>0.3838673576656945</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5451396629208958</v>
+        <v>0.5473054566335386</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>86</v>
@@ -833,19 +833,19 @@
         <v>142433</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>118313</v>
+        <v>116807</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>166789</v>
+        <v>166188</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3942913294049976</v>
+        <v>0.3942913294049975</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3275216872734514</v>
+        <v>0.323351140388221</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4617161379256948</v>
+        <v>0.4600515859278775</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>176</v>
@@ -854,19 +854,19 @@
         <v>331390</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>286965</v>
+        <v>287279</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>367577</v>
+        <v>369697</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4309182701171145</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3731510643828643</v>
+        <v>0.3735590753125482</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4779735870323454</v>
+        <v>0.4807299654005148</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>103505</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>76998</v>
+        <v>78031</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>137569</v>
+        <v>138120</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2538170475307151</v>
+        <v>0.253817047530715</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1888154507204298</v>
+        <v>0.1913487926626571</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3373502014287321</v>
+        <v>0.3387011826970802</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>30</v>
@@ -904,19 +904,19 @@
         <v>60500</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>42032</v>
+        <v>42286</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>84370</v>
+        <v>83320</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1674784222694386</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1163549471779127</v>
+        <v>0.1170590817583446</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2335585651055346</v>
+        <v>0.2306510749571765</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>67</v>
@@ -925,19 +925,19 @@
         <v>164005</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>132263</v>
+        <v>129932</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>205121</v>
+        <v>205023</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2132610825790193</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1719859689670631</v>
+        <v>0.1689557802791764</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2667264533722083</v>
+        <v>0.2665982784193799</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>137212</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>113229</v>
+        <v>112071</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>165665</v>
+        <v>163316</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2885305371812515</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2380984532655122</v>
+        <v>0.2356626479577406</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3483614778062994</v>
+        <v>0.3434220063929087</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>152</v>
@@ -1050,19 +1050,19 @@
         <v>163936</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>142221</v>
+        <v>141518</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>186736</v>
+        <v>186213</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3271631441656609</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2838262573313987</v>
+        <v>0.2824249168662278</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3726643115603915</v>
+        <v>0.3716210137538755</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>234</v>
@@ -1071,19 +1071,19 @@
         <v>301148</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>268816</v>
+        <v>269901</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>336843</v>
+        <v>336782</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.3083517205243557</v>
+        <v>0.3083517205243558</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2752462558565864</v>
+        <v>0.2763571522995855</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3449004479307475</v>
+        <v>0.3448380591245895</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>228941</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>199795</v>
+        <v>200813</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>258672</v>
+        <v>257449</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4814174564420736</v>
+        <v>0.4814174564420735</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4201282385360344</v>
+        <v>0.4222699228376103</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5439351344642037</v>
+        <v>0.5413644269515182</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>221</v>
@@ -1121,19 +1121,19 @@
         <v>231779</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>209731</v>
+        <v>208157</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>254657</v>
+        <v>255216</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4625555146595431</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4185547605016867</v>
+        <v>0.4154143784515668</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5082138063568244</v>
+        <v>0.509329017965386</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>372</v>
@@ -1142,19 +1142,19 @@
         <v>460720</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>419938</v>
+        <v>422473</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>494115</v>
+        <v>497883</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.4717399835645799</v>
+        <v>0.47173998356458</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.429982739361268</v>
+        <v>0.4325786090126683</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5059343065748744</v>
+        <v>0.5097922088055133</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>109403</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>87635</v>
+        <v>87913</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>135471</v>
+        <v>137297</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.230052006376675</v>
+        <v>0.2300520063766749</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1842785385753256</v>
+        <v>0.1848637850777252</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2848696896511079</v>
+        <v>0.2887079599487045</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>87</v>
@@ -1192,19 +1192,19 @@
         <v>105368</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>86783</v>
+        <v>85480</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>126120</v>
+        <v>123999</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2102813411747959</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1731912034430561</v>
+        <v>0.1705911746470306</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2516948056120752</v>
+        <v>0.2474623683022535</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>155</v>
@@ -1213,19 +1213,19 @@
         <v>214771</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>185641</v>
+        <v>184143</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>247989</v>
+        <v>248134</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2199082959110644</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1900816712036493</v>
+        <v>0.1885476810460591</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.253920723699475</v>
+        <v>0.2540692496545063</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>196499</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>174309</v>
+        <v>170900</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>225356</v>
+        <v>221592</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3173671345955572</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2815272182846644</v>
+        <v>0.2760209467935135</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3639737861555791</v>
+        <v>0.3578938137847081</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>293</v>
@@ -1338,19 +1338,19 @@
         <v>213989</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>194622</v>
+        <v>193871</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>235450</v>
+        <v>233171</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3448303641425863</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3136216929581084</v>
+        <v>0.312411523797769</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3794138274491903</v>
+        <v>0.3757423547955475</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>463</v>
@@ -1359,19 +1359,19 @@
         <v>410488</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>378164</v>
+        <v>378582</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>442653</v>
+        <v>440332</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3311143341659793</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3050406250021507</v>
+        <v>0.3053778507578825</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3570599268628811</v>
+        <v>0.3551877496310703</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>279741</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>252786</v>
+        <v>255226</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>303777</v>
+        <v>306459</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4518108818756451</v>
+        <v>0.4518108818756449</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4082761695441211</v>
+        <v>0.4122163169129012</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4906311061459114</v>
+        <v>0.4949631658791324</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>386</v>
@@ -1409,19 +1409,19 @@
         <v>277357</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>255800</v>
+        <v>257415</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>298093</v>
+        <v>300070</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4469452229192875</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4122075090959589</v>
+        <v>0.4148102791478858</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4803591804288179</v>
+        <v>0.4835447786840788</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>643</v>
@@ -1430,19 +1430,19 @@
         <v>557098</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>525159</v>
+        <v>525760</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>589443</v>
+        <v>590246</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4493752912398054</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4236123290784566</v>
+        <v>0.4240967586878817</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4754663839541212</v>
+        <v>0.4761139965559111</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>142915</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>120260</v>
+        <v>123169</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>167521</v>
+        <v>167190</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2308219835287978</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1942321864674189</v>
+        <v>0.1989311438269164</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2705637843830705</v>
+        <v>0.2700294439496786</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>165</v>
@@ -1480,19 +1480,19 @@
         <v>129216</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>111596</v>
+        <v>112207</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>146255</v>
+        <v>146831</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2082244129381262</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.179830504440635</v>
+        <v>0.1808153794729042</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2356810493010404</v>
+        <v>0.2366104184881607</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>282</v>
@@ -1501,19 +1501,19 @@
         <v>272131</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>244414</v>
+        <v>245898</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>303836</v>
+        <v>301972</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2195103745942153</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.197153043272692</v>
+        <v>0.198350301761635</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2450854627239463</v>
+        <v>0.2435819491818272</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>223471</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>199979</v>
+        <v>198469</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>248404</v>
+        <v>250127</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3192943658302792</v>
+        <v>0.3192943658302793</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.285730168418429</v>
+        <v>0.2835721702548201</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3549188141159242</v>
+        <v>0.3573805041780673</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>369</v>
@@ -1626,19 +1626,19 @@
         <v>238767</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>219968</v>
+        <v>216569</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>259539</v>
+        <v>258692</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3244400567371554</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2988961486282459</v>
+        <v>0.2942766343187009</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3526654811009401</v>
+        <v>0.3515146973265086</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>577</v>
@@ -1647,19 +1647,19 @@
         <v>462238</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>429187</v>
+        <v>431153</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>491879</v>
+        <v>495889</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3219318035354132</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2989130813850988</v>
+        <v>0.3002823741022791</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.342575721305087</v>
+        <v>0.3453689778738829</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>324211</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>296206</v>
+        <v>295054</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>350692</v>
+        <v>350679</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4632315387212075</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4232192476965795</v>
+        <v>0.4215719522619447</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5010678893486136</v>
+        <v>0.5010488260155488</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>522</v>
@@ -1697,19 +1697,19 @@
         <v>328479</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>308031</v>
+        <v>308817</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>349364</v>
+        <v>350951</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4463418838194728</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4185567518813555</v>
+        <v>0.4196246557322388</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4747200420100449</v>
+        <v>0.4768767355496905</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>839</v>
@@ -1718,19 +1718,19 @@
         <v>652690</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>616456</v>
+        <v>618173</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>689936</v>
+        <v>686262</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4545747007045654</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4293393668639875</v>
+        <v>0.4305353120620386</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4805150595790257</v>
+        <v>0.4779564663547791</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>152208</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>128242</v>
+        <v>130699</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>173565</v>
+        <v>176358</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2174740954485133</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1832316706483338</v>
+        <v>0.1867418125738908</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2479889877719549</v>
+        <v>0.2519800886634343</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>248</v>
@@ -1768,19 +1768,19 @@
         <v>168690</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>150854</v>
+        <v>147482</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>188694</v>
+        <v>185229</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2292180594433718</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2049824341850991</v>
+        <v>0.200400165032927</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2564000237130537</v>
+        <v>0.251691755576926</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>387</v>
@@ -1789,19 +1789,19 @@
         <v>320898</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>293941</v>
+        <v>290260</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>352392</v>
+        <v>351475</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2234934957600214</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2047194434149225</v>
+        <v>0.2021552596913473</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2454282722118336</v>
+        <v>0.2447898895907979</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>198555</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>178169</v>
+        <v>175838</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>221175</v>
+        <v>219888</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3264276678293757</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.292913928933308</v>
+        <v>0.2890811470612279</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3636154673812212</v>
+        <v>0.3615005810136951</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>373</v>
@@ -1914,19 +1914,19 @@
         <v>227816</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>209612</v>
+        <v>210810</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>246814</v>
+        <v>246026</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3744762088812879</v>
+        <v>0.374476208881288</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3445530330474119</v>
+        <v>0.3465222360586949</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4057048079663332</v>
+        <v>0.40441037035153</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>589</v>
@@ -1935,19 +1935,19 @@
         <v>426370</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>397359</v>
+        <v>397612</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>456152</v>
+        <v>456757</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.3504537742324496</v>
+        <v>0.3504537742324497</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3266087811482272</v>
+        <v>0.3268162765775642</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3749335337722571</v>
+        <v>0.37543039376156</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>275512</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>251215</v>
+        <v>252956</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>298905</v>
+        <v>303430</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4529475010997099</v>
+        <v>0.4529475010997098</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4130019685219019</v>
+        <v>0.4158647263361535</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4914057415417523</v>
+        <v>0.4988442672657816</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>439</v>
@@ -1985,19 +1985,19 @@
         <v>260355</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>240042</v>
+        <v>241885</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>277329</v>
+        <v>278145</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.4279639080934271</v>
+        <v>0.4279639080934273</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3945735024253696</v>
+        <v>0.3976038740835816</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4558648025307128</v>
+        <v>0.4572062757993938</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>747</v>
@@ -2006,19 +2006,19 @@
         <v>535867</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>504444</v>
+        <v>502967</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>565104</v>
+        <v>563691</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4404547500034484</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4146265322180706</v>
+        <v>0.4134125193310815</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4644862207976106</v>
+        <v>0.4633250511630694</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>134198</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>112970</v>
+        <v>114100</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>154419</v>
+        <v>154218</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2206248310709144</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1857245082596154</v>
+        <v>0.1875831002107764</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2538671823994818</v>
+        <v>0.2535380457386943</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>189</v>
@@ -2056,19 +2056,19 @@
         <v>120187</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>105824</v>
+        <v>105013</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>136855</v>
+        <v>135619</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.1975598830252848</v>
+        <v>0.1975598830252849</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1739498716010203</v>
+        <v>0.1726175648341959</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2249585200770484</v>
+        <v>0.2229263601933935</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>327</v>
@@ -2077,19 +2077,19 @@
         <v>254385</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>230476</v>
+        <v>228059</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>281092</v>
+        <v>281141</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.209091475764102</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1894395296367555</v>
+        <v>0.1874528176072825</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2310428404636499</v>
+        <v>0.2310836557949943</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>144252</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>127926</v>
+        <v>130233</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>160856</v>
+        <v>162571</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3548490467757838</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3146891103243896</v>
+        <v>0.320363800804261</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3956926702920188</v>
+        <v>0.3999110995819895</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>304</v>
@@ -2202,19 +2202,19 @@
         <v>163963</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>149861</v>
+        <v>148506</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>179373</v>
+        <v>177281</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.3733507250187782</v>
+        <v>0.3733507250187781</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.341240399240144</v>
+        <v>0.3381535827398922</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4084396558118372</v>
+        <v>0.403677266611024</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>503</v>
@@ -2223,19 +2223,19 @@
         <v>308215</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>287019</v>
+        <v>287471</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>329498</v>
+        <v>330460</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3644570344820132</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3393926813457282</v>
+        <v>0.3399279803571797</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3896230264867451</v>
+        <v>0.3907606417444029</v>
       </c>
     </row>
     <row r="25">
@@ -2252,19 +2252,19 @@
         <v>176395</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>160332</v>
+        <v>159133</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>193753</v>
+        <v>191695</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.4339172985899454</v>
+        <v>0.4339172985899455</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3944042806228358</v>
+        <v>0.3914535701104839</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4766166691359409</v>
+        <v>0.4715544458851149</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>365</v>
@@ -2273,19 +2273,19 @@
         <v>191249</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>177798</v>
+        <v>176521</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>206981</v>
+        <v>206132</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4354832557019868</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4048529732643876</v>
+        <v>0.4019458942124018</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4713051760531343</v>
+        <v>0.4693720699238307</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>619</v>
@@ -2294,19 +2294,19 @@
         <v>367644</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>345990</v>
+        <v>345901</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>389946</v>
+        <v>388816</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4347305057208538</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4091244219118282</v>
+        <v>0.4090192841599848</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4611012932583626</v>
+        <v>0.459765818701292</v>
       </c>
     </row>
     <row r="26">
@@ -2323,19 +2323,19 @@
         <v>85870</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>72575</v>
+        <v>72926</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>99595</v>
+        <v>99736</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2112336546342706</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1785296991415029</v>
+        <v>0.1793918941154449</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2449963823993886</v>
+        <v>0.24534342859418</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>158</v>
@@ -2344,19 +2344,19 @@
         <v>83954</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>72531</v>
+        <v>72159</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>96403</v>
+        <v>95913</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1911660192792351</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1651557150492859</v>
+        <v>0.164309967132142</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2195142752786906</v>
+        <v>0.2183974226688028</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>274</v>
@@ -2365,19 +2365,19 @@
         <v>169824</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>152500</v>
+        <v>152059</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>188258</v>
+        <v>188107</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2008124597971331</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.180327601007195</v>
+        <v>0.1798059331452584</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2226107223595135</v>
+        <v>0.2224319471608839</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>132600</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>117040</v>
+        <v>117954</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>146618</v>
+        <v>147170</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4295933223293276</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3791800426977219</v>
+        <v>0.3821434712328243</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4750084062154546</v>
+        <v>0.4767962895170306</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>479</v>
@@ -2490,19 +2490,19 @@
         <v>244937</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>229179</v>
+        <v>229235</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>259417</v>
+        <v>260095</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.528079039566111</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4941043863306111</v>
+        <v>0.4942242927232949</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5592965313794056</v>
+        <v>0.5607593956250597</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>680</v>
@@ -2511,19 +2511,19 @@
         <v>377538</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>354275</v>
+        <v>355294</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>397931</v>
+        <v>397516</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4887270537073909</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4586125332719296</v>
+        <v>0.4599314211515403</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5151254698692982</v>
+        <v>0.5145889934177527</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>129658</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>115801</v>
+        <v>116300</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>144938</v>
+        <v>144973</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4200609604616239</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3751658284434609</v>
+        <v>0.3767844364879671</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4695649352525542</v>
+        <v>0.4696787733916373</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>311</v>
@@ -2561,19 +2561,19 @@
         <v>167032</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>152522</v>
+        <v>152363</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>182897</v>
+        <v>182107</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3601162283064251</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3288332910824863</v>
+        <v>0.3284918074279131</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3943215615958062</v>
+        <v>0.392618578532672</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>502</v>
@@ -2582,19 +2582,19 @@
         <v>296690</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>277057</v>
+        <v>277744</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>319854</v>
+        <v>318736</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3840683740414729</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3586536933552228</v>
+        <v>0.3595423117290714</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4140543989581004</v>
+        <v>0.4126076139973366</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>46406</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>36340</v>
+        <v>36356</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>57685</v>
+        <v>58182</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1503457172090486</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1177338969497576</v>
+        <v>0.1177839772075686</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1868848579938306</v>
+        <v>0.1884953083668118</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>89</v>
@@ -2632,19 +2632,19 @@
         <v>51858</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>42392</v>
+        <v>41641</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>62645</v>
+        <v>63252</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1118047321274639</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09139558342729259</v>
+        <v>0.08977644255980519</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1350616560173315</v>
+        <v>0.1363696615302839</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>153</v>
@@ -2653,19 +2653,19 @@
         <v>98265</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>84751</v>
+        <v>85146</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>115204</v>
+        <v>112433</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1272045722511362</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1097112529582816</v>
+        <v>0.1102218974763203</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1491325743765246</v>
+        <v>0.1455463010272793</v>
       </c>
     </row>
     <row r="31">
@@ -2757,19 +2757,19 @@
         <v>1147921</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1086494</v>
+        <v>1087159</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1208033</v>
+        <v>1207532</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.3255738506201656</v>
+        <v>0.3255738506201655</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3081518386876337</v>
+        <v>0.308340601834904</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3426227424105324</v>
+        <v>0.3424808144206997</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2060</v>
@@ -2778,19 +2778,19 @@
         <v>1411713</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1357760</v>
+        <v>1362717</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1462208</v>
+        <v>1462763</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.3784580913973257</v>
+        <v>0.3784580913973256</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.363994126747213</v>
+        <v>0.3653230067961203</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3919950284351483</v>
+        <v>0.3921437235460253</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3181</v>
@@ -2799,19 +2799,19 @@
         <v>2559634</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2478814</v>
+        <v>2481362</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2640392</v>
+        <v>2640495</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.3527605853220363</v>
+        <v>0.3527605853220362</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3416222468395615</v>
+        <v>0.3419733492094166</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3638903638137853</v>
+        <v>0.3639045773710116</v>
       </c>
     </row>
     <row r="33">
@@ -2828,19 +2828,19 @@
         <v>1603414</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1540924</v>
+        <v>1541119</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>1664146</v>
+        <v>1665244</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4547608715859405</v>
+        <v>0.4547608715859404</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4370376275759036</v>
+        <v>0.437092798396299</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4719858555006251</v>
+        <v>0.4722972470176079</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2330</v>
@@ -2849,19 +2849,19 @@
         <v>1598684</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1549332</v>
+        <v>1542111</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1658118</v>
+        <v>1654922</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.4285821511686627</v>
+        <v>0.4285821511686626</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.4153517109619487</v>
+        <v>0.4134156485608196</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.4445154953489604</v>
+        <v>0.4436585519683875</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>3898</v>
@@ -2870,19 +2870,19 @@
         <v>3202098</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>3120990</v>
+        <v>3104414</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>3286340</v>
+        <v>3285301</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.4413029129131867</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.430124865546578</v>
+        <v>0.4278404800238873</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.4529129248451215</v>
+        <v>0.4527696661446098</v>
       </c>
     </row>
     <row r="34">
@@ -2899,19 +2899,19 @@
         <v>774504</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>721768</v>
+        <v>716018</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>840258</v>
+        <v>826309</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.219665277793894</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2047081845324069</v>
+        <v>0.2030773517256237</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.238314283499838</v>
+        <v>0.2343580114407724</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>966</v>
@@ -2920,19 +2920,19 @@
         <v>719773</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>675520</v>
+        <v>672862</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>764403</v>
+        <v>763247</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.1929597574340118</v>
+        <v>0.1929597574340117</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1810963325874512</v>
+        <v>0.1803836332807903</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2049244694875111</v>
+        <v>0.2046145736663723</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1645</v>
@@ -2941,19 +2941,19 @@
         <v>1494277</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1425228</v>
+        <v>1421638</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1572015</v>
+        <v>1565823</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.205936501764777</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1964203721110555</v>
+        <v>0.1959255777874047</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2166501016390269</v>
+        <v>0.2157966656600261</v>
       </c>
     </row>
     <row r="35">
